--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -3809,10 +3809,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cca1f8f06752839a5d2a2aaf5a51db7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3ef14356e556b93afe382ac3fbbcf07" ns2:_="" ns3:_="">
-    <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
-    <xsd:import namespace="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D123EB44872014A9CBA28754C030F45" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b63aef4ab9a0554846bbd80426a442de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b" xmlns:ns3="d1eda545-557d-4822-aebd-96c436cdfdd2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="025929af57d157df69a05cd96369afaf" ns2:_="" ns3:_="">
+    <xsd:import namespace="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b"/>
+    <xsd:import namespace="d1eda545-557d-4822-aebd-96c436cdfdd2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3821,12 +3821,17 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:Pic" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
@@ -3836,7 +3841,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="649a79cd-06e4-47a3-aac9-21cb806f3675" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3849,7 +3854,17 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -3861,17 +3876,41 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Pic" ma:index="19" nillable="true" ma:displayName="Pic" ma:format="Image" ma:internalName="Pic">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -3879,10 +3918,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f25b792-b2ba-4b5c-8669-b39a27555406" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1eda545-557d-4822-aebd-96c436cdfdd2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -3901,14 +3940,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2e954b58-32a8-4cab-baf9-92d5046718f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7f25b792-b2ba-4b5c-8669-b39a27555406">
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{818068d8-5dd5-4fbd-ae53-d04ba5fbca96}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1eda545-557d-4822-aebd-96c436cdfdd2">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -4031,22 +4070,26 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
+    <Pic xmlns="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Pic>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d1eda545-557d-4822-aebd-96c436cdfdd2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CBC7CE7-2154-48AE-9A37-022E2D61F1A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128C20B7-302B-4A0B-B547-7C14AC7F05DC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E35A8F2C-029D-49E6-B537-3326B3854340}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5641E2F2-9919-42AB-BD44-E38846C996B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC24F9F3-53FF-45E8-B28A-A55C0492690D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAD76044-6394-45FF-AE94-8522FD1827FC}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -4083,13 +4083,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128C20B7-302B-4A0B-B547-7C14AC7F05DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA992D8C-01A1-4033-A85E-AD6D6C7A28C1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5641E2F2-9919-42AB-BD44-E38846C996B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B87189-0A53-4E3E-9005-88B53E0C7D65}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAD76044-6394-45FF-AE94-8522FD1827FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{510449B9-3C26-471C-97E9-56F118CCAA2D}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -3809,10 +3809,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D123EB44872014A9CBA28754C030F45" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b63aef4ab9a0554846bbd80426a442de">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b" xmlns:ns3="d1eda545-557d-4822-aebd-96c436cdfdd2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="025929af57d157df69a05cd96369afaf" ns2:_="" ns3:_="">
-    <xsd:import namespace="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b"/>
-    <xsd:import namespace="d1eda545-557d-4822-aebd-96c436cdfdd2"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cca1f8f06752839a5d2a2aaf5a51db7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3ef14356e556b93afe382ac3fbbcf07" ns2:_="" ns3:_="">
+    <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+    <xsd:import namespace="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3821,17 +3821,12 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:Pic" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
@@ -3841,7 +3836,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="649a79cd-06e4-47a3-aac9-21cb806f3675" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3854,17 +3849,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -3876,41 +3861,17 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Pic" ma:index="19" nillable="true" ma:displayName="Pic" ma:format="Image" ma:internalName="Pic">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -3918,10 +3879,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1eda545-557d-4822-aebd-96c436cdfdd2" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f25b792-b2ba-4b5c-8669-b39a27555406" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -3940,14 +3901,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{818068d8-5dd5-4fbd-ae53-d04ba5fbca96}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1eda545-557d-4822-aebd-96c436cdfdd2">
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2e954b58-32a8-4cab-baf9-92d5046718f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7f25b792-b2ba-4b5c-8669-b39a27555406">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -4070,26 +4031,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Pic xmlns="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Pic>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a0a8f4a1-fec1-45cc-8c4b-70028d19f88b">
+    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d1eda545-557d-4822-aebd-96c436cdfdd2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA992D8C-01A1-4033-A85E-AD6D6C7A28C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D8EDA3-F00F-482D-A883-7FF7984DD529}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B87189-0A53-4E3E-9005-88B53E0C7D65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6501CE44-E41D-4C27-A3DC-9F2F51FEDC0C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{510449B9-3C26-471C-97E9-56F118CCAA2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF538E1-B151-41FB-AC89-65C9792836CF}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -4040,13 +4040,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D8EDA3-F00F-482D-A883-7FF7984DD529}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D777E0-4CD0-45BD-94FC-5A9E9487BF08}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6501CE44-E41D-4C27-A3DC-9F2F51FEDC0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF1E36D-3116-467D-A37C-3859FFF9DFCE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF538E1-B151-41FB-AC89-65C9792836CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A528124-4EF7-44F3-BD5A-AAB94B40D686}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -4040,13 +4040,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D777E0-4CD0-45BD-94FC-5A9E9487BF08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FFC5D11-9F8E-4AF8-9763-D1797B2C5CA1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF1E36D-3116-467D-A37C-3859FFF9DFCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B77A69-8FEA-4348-BB37-995F67B35735}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A528124-4EF7-44F3-BD5A-AAB94B40D686}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{503C30D0-5A47-40A7-9440-9B2D6F5A224D}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -4040,13 +4040,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FFC5D11-9F8E-4AF8-9763-D1797B2C5CA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084BAAC-BB25-41F1-AC33-6F201AA033DD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B77A69-8FEA-4348-BB37-995F67B35735}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8544D646-E0C4-43F3-9620-12E84A0456B1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{503C30D0-5A47-40A7-9440-9B2D6F5A224D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B37695E-F45B-439E-AB04-D51311E4FE33}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -3806,247 +3806,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cca1f8f06752839a5d2a2aaf5a51db7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3ef14356e556b93afe382ac3fbbcf07" ns2:_="" ns3:_="">
-    <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
-    <xsd:import namespace="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="649a79cd-06e4-47a3-aac9-21cb806f3675" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f25b792-b2ba-4b5c-8669-b39a27555406" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2e954b58-32a8-4cab-baf9-92d5046718f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7f25b792-b2ba-4b5c-8669-b39a27555406">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084BAAC-BB25-41F1-AC33-6F201AA033DD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8544D646-E0C4-43F3-9620-12E84A0456B1}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B37695E-F45B-439E-AB04-D51311E4FE33}"/>
 </file>
--- a/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
+++ b/Print S9/Print_S9_RE_Dispatcher/Data/Config.xlsx
@@ -3806,4 +3806,260 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="737d8429b8eb9892549b3c27dc155f66">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c35880a7ae30656a46222e88cc05a07" ns2:_="" ns3:_="">
+    <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+    <xsd:import namespace="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:Time" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="649a79cd-06e4-47a3-aac9-21cb806f3675" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Time" ma:index="20" nillable="true" ma:displayName="Time" ma:format="DateTime" ma:internalName="Time">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f25b792-b2ba-4b5c-8669-b39a27555406" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2e954b58-32a8-4cab-baf9-92d5046718f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7f25b792-b2ba-4b5c-8669-b39a27555406">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
+    <Time xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8011CE-5B45-4685-A471-60C856CE2508}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC69F22-91E4-4040-AAF9-1D8F4FE426F7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB49DC3D-C579-4A3D-8695-E6E9341D52C4}"/>
 </file>